--- a/chapter2/Chapter2-HW-withAnswers.xlsx
+++ b/chapter2/Chapter2-HW-withAnswers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -55,13 +55,13 @@
     <t>NEW YEAR</t>
   </si>
   <si>
-    <t>Final Answer is below</t>
-  </si>
-  <si>
     <t>Coefficients</t>
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Final Answer is below. Pay attention to the setup of B38:K38 that helps the calculation of the coefficients (10 is for the intercept b)</t>
   </si>
 </sst>
 </file>
@@ -163,15 +163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168276</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -180,8 +180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="260350"/>
-          <a:ext cx="9404351" cy="2486026"/>
+          <a:off x="857250" y="57150"/>
+          <a:ext cx="9039226" cy="2568576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -325,7 +325,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1.understand the organization: what factors would affect the enrollment? Number of CT high school graduates, USA economics (job rate, growth rate), tuition fee comparable to universities around, scholarship available, finacial aid available, number of open house visitors,  TV or radio advertisement investment, number of admission activities in high schools, SAT cutoff, etc. There might be more factors, and some of them may not have any impact. Students are strongly encouraged to add more factors you think would matter. </a:t>
+            <a:t>1. Understand the organization: what factors would affect the enrollment? Number of CT high school graduates, USA economics (job rate, growth rate), tuition fee comparable to universities around, scholarship available, finacial aid available, number of open house visitors,  TV or radio advertisement investment, number of admission activities in high schools, SAT cutoff, etc. There might be more factors, and some of them may not have any impact. Students are strongly encouraged to add more factors you think would matter. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -384,7 +384,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. What we want to do is to based on the existing 10 years' data and then predict next year's  First Year enrollment.  </a:t>
+            <a:t>2.  What we want to do is to based on the existing 10 years' data and then predict next year's  First Year enrollment.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -445,6 +445,147 @@
             </a:rPr>
             <a:t>In addition, please feel free to change the values.  They are just faked data.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note, the LINEST function returns the coefficient array in the order of SAT cutoff, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>admission activities,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>media advertisement investment,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> number of open house visitors, financial aid available, financial scholarship, comparable tuition fee, USA Economics, Num high school graduates, and the intercept b.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -765,15 +906,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A12:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -785,65 +926,8 @@
     <col min="24" max="24" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1277,7 +1361,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1292,7 +1376,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3">
         <f>INDEX(LINEST($K40:$K49, $B40:$J49), 1, B38)</f>
@@ -1337,7 +1421,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
         <v>9</v>
